--- a/tranformed_feature/test_data_after_tranforning.xlsx
+++ b/tranformed_feature/test_data_after_tranforning.xlsx
@@ -31,10 +31,10 @@
     <t>Additional_Info</t>
   </si>
   <si>
-    <t>Dep_Day_Period</t>
+    <t>Day_Period_of_Dep_Time</t>
   </si>
   <si>
-    <t>Arrival_Day_Period</t>
+    <t>Day_Period_of_Arrival_Time</t>
   </si>
   <si>
     <t>Duration</t>
